--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFC5F05-B226-8442-ABA5-D82FA354EB74}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D870BCD-9B16-374B-8969-D37C1C269FC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="440" windowWidth="23840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -420,6 +420,18 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/Explore/index.html?assetsName=HC4_T3U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/meet_book/index.html?assetsName=HC2_T1U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/meet_book/index.html?assetsName=HC3_T4U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/qieshuiguo/index.html?assetsName=HC6_T4U1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +533,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -838,7 +850,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -872,16 +884,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -892,10 +904,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="2" t="s">
         <v>90</v>
       </c>
@@ -904,36 +916,36 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -944,10 +956,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
@@ -956,58 +968,67 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1018,56 +1039,56 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1076,10 +1097,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1088,25 +1109,25 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="F19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1114,19 +1135,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1135,43 +1156,43 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="F24" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="F25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>7</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1182,10 +1203,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
         <v>98</v>
       </c>
@@ -1194,10 +1215,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="2" t="s">
         <v>99</v>
       </c>
@@ -1206,227 +1227,259 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="F29" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
       <c r="F30" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>8</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="F31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="F32" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>9</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="F33" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="F34" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
       <c r="F35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="F36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
       <c r="F37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="6"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="F38" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>10</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
       <c r="F39" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="6"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="F40" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
       <c r="F41" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
       <c r="F42" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
       <c r="F43" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
       <c r="F44" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>11</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="5"/>
       <c r="F45" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
       <c r="F46" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>12</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
       <c r="F47" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
       <c r="F48" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="F49" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D50"/>
@@ -1443,38 +1496,6 @@
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="D39:D44"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1489,6 +1510,9 @@
     <hyperlink ref="E27" r:id="rId9" xr:uid="{9E07AF96-EA33-9E40-9666-D74EF84E0C98}"/>
     <hyperlink ref="E3" r:id="rId10" xr:uid="{6E7A1B53-70E6-D349-8568-D1868473AA81}"/>
     <hyperlink ref="E28" r:id="rId11" xr:uid="{EE472EAC-3720-B546-9708-5966764E019A}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{2D029CC8-8526-854E-9914-6335B2994A55}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{FB83969D-C03E-DE42-9F42-D34E41EBF0DD}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{04DF7F83-D271-844F-99DD-6EFE3AD1BD19}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D870BCD-9B16-374B-8969-D37C1C269FC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A95270-DCE2-AB4E-A6D8-D0BA052FB400}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="440" windowWidth="23840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="440" windowWidth="23840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原創" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -432,6 +432,29 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/qieshuiguo/index.html?assetsName=HC6_T4U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/SpaceAdventure/index.html?assetsName=HC1_T3U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁建波</t>
+    <rPh sb="0" eb="3">
+      <t>lu'jian'bo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/wk1_sen_u1/index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/wk1_sen_u2/index.html</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +556,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -849,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A15" zoomScale="135" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -884,16 +907,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -904,10 +927,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
         <v>90</v>
       </c>
@@ -916,36 +939,36 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -956,10 +979,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
@@ -968,10 +991,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2" t="s">
         <v>102</v>
       </c>
@@ -980,16 +1003,16 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
         <v>100</v>
       </c>
@@ -998,10 +1021,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
@@ -1010,25 +1033,25 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1039,56 +1062,56 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1097,10 +1120,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1109,25 +1132,25 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="F19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>6</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1135,19 +1158,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1156,43 +1179,43 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="F24" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="F25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>7</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1203,10 +1226,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
         <v>98</v>
       </c>
@@ -1215,10 +1238,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="2" t="s">
         <v>99</v>
       </c>
@@ -1227,259 +1250,234 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="F29" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="6"/>
       <c r="F30" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>8</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="F31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="F32" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>9</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="F33" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="F34" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="F35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="F36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="F37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="F38" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>10</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="F39" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
       <c r="F40" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
       <c r="F41" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
       <c r="F42" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="F43" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="F44" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>11</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="6"/>
       <c r="F45" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
       <c r="F46" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <v>12</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
       <c r="F47" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
       <c r="F48" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
       <c r="F49" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D50"/>
@@ -1496,6 +1494,38 @@
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="D39:D44"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1513,6 +1543,7 @@
     <hyperlink ref="E9" r:id="rId12" xr:uid="{2D029CC8-8526-854E-9914-6335B2994A55}"/>
     <hyperlink ref="E10" r:id="rId13" xr:uid="{FB83969D-C03E-DE42-9F42-D34E41EBF0DD}"/>
     <hyperlink ref="E8" r:id="rId14" xr:uid="{04DF7F83-D271-844F-99DD-6EFE3AD1BD19}"/>
+    <hyperlink ref="E33" r:id="rId15" xr:uid="{8B3A8BC6-A593-F140-8F8E-B655A638CF99}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1521,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1602,6 +1633,22 @@
       </c>
       <c r="B9" s="2" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1615,6 +1662,8 @@
     <hyperlink ref="B7" r:id="rId6" display="http://118.25.0.212/h5/wk1_voc_u4/index.html" xr:uid="{6B4694C3-0268-E046-8E81-FFEB716945C8}"/>
     <hyperlink ref="B8" r:id="rId7" display="http://118.25.0.212/h5/wk1_voc_u5/index.html" xr:uid="{E88D25F8-9C50-A646-846D-9425F891D13A}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{59F24EA3-B78B-C648-90E4-13B7658D6C0C}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{78A8B408-2E7C-1F47-8A95-EE2CE488D565}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{7BFF7BFE-EF0F-D043-B0DE-728402EDDAF5}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A95270-DCE2-AB4E-A6D8-D0BA052FB400}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A87C7BC-B189-B14B-884A-D0D5D02FB3A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="440" windowWidth="23840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -455,6 +455,18 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/wk1_sen_u2/index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/wk1_sen_u3/index.html</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +511,13 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -540,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,14 +575,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:F41"/>
+    <sheetView topLeftCell="A20" zoomScale="135" workbookViewId="0">
+      <selection activeCell="F31" sqref="A31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -907,16 +929,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -927,10 +949,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="2" t="s">
         <v>90</v>
       </c>
@@ -939,36 +961,36 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -979,10 +1001,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
@@ -991,10 +1013,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2" t="s">
         <v>102</v>
       </c>
@@ -1003,16 +1025,16 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
         <v>100</v>
       </c>
@@ -1021,10 +1043,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
@@ -1033,25 +1055,25 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1062,56 +1084,56 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1120,10 +1142,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1132,25 +1154,25 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="F19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1158,19 +1180,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1179,43 +1201,43 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="F24" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="F25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>7</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1226,10 +1248,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
         <v>98</v>
       </c>
@@ -1238,10 +1260,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="2" t="s">
         <v>99</v>
       </c>
@@ -1250,56 +1272,56 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="F29" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
       <c r="F30" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>8</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="F31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="F32" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>9</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1310,174 +1332,206 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="F34" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
       <c r="F35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="F36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
       <c r="F37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="6"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="F38" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>10</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
       <c r="F39" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="6"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="F40" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
       <c r="F41" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
       <c r="F42" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
       <c r="F43" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
       <c r="F44" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>11</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="5"/>
       <c r="F45" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
       <c r="F46" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>12</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
       <c r="F47" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
       <c r="F48" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="F49" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D50"/>
@@ -1494,38 +1548,6 @@
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="D39:D44"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1552,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -1645,10 +1667,18 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1664,6 +1694,7 @@
     <hyperlink ref="B9" r:id="rId8" xr:uid="{59F24EA3-B78B-C648-90E4-13B7658D6C0C}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{78A8B408-2E7C-1F47-8A95-EE2CE488D565}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{7BFF7BFE-EF0F-D043-B0DE-728402EDDAF5}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{8788A84F-611C-FC48-AD47-406FD8A06C41}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A87C7BC-B189-B14B-884A-D0D5D02FB3A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A4F73-36F7-B341-8BFB-53C768107890}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="440" windowWidth="23840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -467,6 +467,25 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/wk1_sen_u3/index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen4</t>
+  </si>
+  <si>
+    <t>sen5</t>
+  </si>
+  <si>
+    <t>sen6</t>
+  </si>
+  <si>
+    <t>sen7</t>
+  </si>
+  <si>
+    <t>sen8</t>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/wk1_sen_u4/index.html</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -575,17 +594,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,13 +948,13 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -949,9 +968,9 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="6"/>
       <c r="E3" s="2" t="s">
         <v>90</v>
@@ -961,9 +980,9 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
@@ -971,9 +990,9 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
@@ -981,13 +1000,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1001,10 +1020,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1013,10 +1032,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="2" t="s">
         <v>102</v>
       </c>
@@ -1025,16 +1044,16 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="2" t="s">
         <v>100</v>
       </c>
@@ -1043,10 +1062,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
@@ -1055,22 +1074,22 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1084,9 +1103,9 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
@@ -1094,9 +1113,9 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
@@ -1104,9 +1123,9 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
@@ -1114,9 +1133,9 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
@@ -1124,16 +1143,16 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>5</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1142,10 +1161,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1154,22 +1173,22 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="F19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1180,19 +1199,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1201,40 +1220,40 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="F24" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="F25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1248,10 +1267,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="2" t="s">
         <v>98</v>
       </c>
@@ -1260,10 +1279,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="2" t="s">
         <v>99</v>
       </c>
@@ -1272,56 +1291,56 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
       <c r="F29" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
       <c r="F30" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5">
+      <c r="A31" s="7">
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
       <c r="F31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="F32" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5">
+      <c r="A33" s="7">
         <v>9</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1332,110 +1351,110 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="F34" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
       <c r="F35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
       <c r="F36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
       <c r="F37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="F38" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5">
+      <c r="A39" s="7">
         <v>10</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
       <c r="F39" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
       <c r="F40" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
       <c r="F41" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
       <c r="F42" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
       <c r="F43" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
       <c r="F44" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="5">
+      <c r="A45" s="7">
         <v>11</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -1444,94 +1463,62 @@
       <c r="C45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="7"/>
       <c r="F45" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="5"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="7"/>
       <c r="F46" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="5">
+      <c r="A47" s="7">
         <v>12</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="F47" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
       <c r="F48" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
       <c r="F49" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D50"/>
@@ -1548,6 +1535,38 @@
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="D39:D44"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1574,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1674,11 +1693,39 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1695,6 +1742,7 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{78A8B408-2E7C-1F47-8A95-EE2CE488D565}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{7BFF7BFE-EF0F-D043-B0DE-728402EDDAF5}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{8788A84F-611C-FC48-AD47-406FD8A06C41}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{F3948D8B-D887-5345-BAED-292944DFE1DA}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A4F73-36F7-B341-8BFB-53C768107890}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C35480-DA23-084A-945F-8F606501D096}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="440" windowWidth="23840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="121">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -486,6 +486,22 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/wk1_sen_u4/index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/wk1_sen_u5/index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/wk1_sen_u6/index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/wk1_sen_u7/index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/wk1_sen_u8/index.html</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -913,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F31" sqref="A31:F32"/>
+    <sheetView topLeftCell="A17" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1596,7 +1612,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1712,20 +1728,32 @@
       <c r="A14" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1743,6 +1771,10 @@
     <hyperlink ref="B11" r:id="rId10" xr:uid="{7BFF7BFE-EF0F-D043-B0DE-728402EDDAF5}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{8788A84F-611C-FC48-AD47-406FD8A06C41}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{F3948D8B-D887-5345-BAED-292944DFE1DA}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{A254B60E-7DA2-4946-9E21-EB4F771C1A3C}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{BB27DEE2-F285-C74B-BC3A-33C035476AC5}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{E686BDF5-A002-874F-84E4-2BF897FF2834}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{A2FDB83C-FE4E-7C48-B8C7-57A25A1517AA}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C35480-DA23-084A-945F-8F606501D096}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B585E67B-B754-F84D-A1A1-DDADFB8A99A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="440" windowWidth="23840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="440" windowWidth="23840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原創" sheetId="1" r:id="rId1"/>
@@ -613,10 +613,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -964,16 +964,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -984,10 +984,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
         <v>90</v>
       </c>
@@ -996,36 +996,36 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1036,10 +1036,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1048,10 +1048,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2" t="s">
         <v>102</v>
       </c>
@@ -1060,16 +1060,16 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
         <v>100</v>
       </c>
@@ -1078,10 +1078,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
@@ -1090,25 +1090,25 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1119,56 +1119,56 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1189,25 +1189,25 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="F19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>6</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1215,19 +1215,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1236,43 +1236,43 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="F24" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="F25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>7</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1283,10 +1283,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
         <v>98</v>
       </c>
@@ -1295,10 +1295,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="2" t="s">
         <v>99</v>
       </c>
@@ -1307,56 +1307,56 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="F29" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
       <c r="F30" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>8</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="F31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="F32" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>9</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1367,174 +1367,206 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="F34" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="F35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="F36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="F37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="F38" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>10</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="F39" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
       <c r="F40" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
       <c r="F41" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
       <c r="F42" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="7"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="F43" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="7"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="F44" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>11</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="6"/>
       <c r="F45" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="7"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="6"/>
       <c r="F46" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>12</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
       <c r="F47" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
       <c r="F48" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
       <c r="F49" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D50"/>
@@ -1551,38 +1583,6 @@
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="D39:D44"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1611,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B585E67B-B754-F84D-A1A1-DDADFB8A99A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFFD916-DCF5-7542-9578-7D1496AB65F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="440" windowWidth="23840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -502,6 +502,10 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/wk1_sen_u8/index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/Supermarket/index.html?assetsName=HC2_T2U1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -929,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1480,6 +1484,9 @@
         <v>68</v>
       </c>
       <c r="D45" s="6"/>
+      <c r="E45" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F45" s="4" t="s">
         <v>83</v>
       </c>
@@ -1601,6 +1608,7 @@
     <hyperlink ref="E10" r:id="rId13" xr:uid="{FB83969D-C03E-DE42-9F42-D34E41EBF0DD}"/>
     <hyperlink ref="E8" r:id="rId14" xr:uid="{04DF7F83-D271-844F-99DD-6EFE3AD1BD19}"/>
     <hyperlink ref="E33" r:id="rId15" xr:uid="{8B3A8BC6-A593-F140-8F8E-B655A638CF99}"/>
+    <hyperlink ref="E45" r:id="rId16" xr:uid="{372BA160-E147-894E-B4CA-07CCB46D9698}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFFD916-DCF5-7542-9578-7D1496AB65F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{65B4EBEF-C43F-134F-A630-3E0D5A757304}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="440" windowWidth="23840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="18300" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原創" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="複刻" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="163">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -506,6 +507,168 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/Supermarket/index.html?assetsName=HC2_T2U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/archery/index.html?assetsName=HC2_T3U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/archery/index.html?assetsName=HC3_T1U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁建波</t>
+  </si>
+  <si>
+    <t>投籃遊戲</t>
+  </si>
+  <si>
+    <t>HC3_T2U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC4_T3U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC5_T1U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC6_T4U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS3_U10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS4_U7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS5_U8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇瓦迪小博士</t>
+  </si>
+  <si>
+    <t>刘渊</t>
+    <rPh sb="0" eb="2">
+      <t>liu'y</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG4_U4</t>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/ChivadiLittleDoctor/index.html?assetsName=WTG4_U4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/xiaoyishengGame/index.html?assetsName=HC1_T4U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/xiaoyishengGame/index.html?assetsName=HC4_T1U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>貼標籤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC3_T3U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC5_T3U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC6_T1U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS3_U5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS3_U12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS5_U3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS5_U7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG1_U3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG4_U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG5_U4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/PasteLabel/index.html?assetsName=HC3_T3U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潛水員</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG4_U3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賽車手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC4_T1U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC6_T1U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG1_U4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防隊</t>
+  </si>
+  <si>
+    <t>HC4_T4U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS4_U6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG1_U7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG2_U5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/Racer_RightOrWrong/index.html?assetsName=HC4_T1U2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +724,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,13 +743,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -598,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,8 +807,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,10 +1130,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="135" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -942,22 +1142,22 @@
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
     <col min="5" max="5" width="75" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -968,16 +1168,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -988,10 +1188,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2" t="s">
         <v>90</v>
       </c>
@@ -1000,36 +1200,36 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1040,10 +1240,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1052,10 +1252,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="2" t="s">
         <v>102</v>
       </c>
@@ -1064,16 +1264,16 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="2" t="s">
         <v>100</v>
       </c>
@@ -1082,10 +1282,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
@@ -1094,25 +1294,25 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1123,56 +1323,56 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6">
+      <c r="A17" s="8">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1181,10 +1381,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1193,25 +1393,25 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="F19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>6</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1219,19 +1419,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1240,43 +1440,43 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="F24" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="F25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6">
+      <c r="A26" s="8">
         <v>7</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1287,10 +1487,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="2" t="s">
         <v>98</v>
       </c>
@@ -1299,10 +1499,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="2" t="s">
         <v>99</v>
       </c>
@@ -1311,56 +1511,56 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8"/>
       <c r="F29" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8"/>
       <c r="F30" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6">
+      <c r="A31" s="8">
         <v>8</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="F31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="F32" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6">
+      <c r="A33" s="8">
         <v>9</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1371,119 +1571,131 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
       <c r="F34" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="F35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
       <c r="F36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
       <c r="F37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
       <c r="F38" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6">
+      <c r="A39" s="8">
         <v>10</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F39" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F40" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F41" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="8"/>
       <c r="F42" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
       <c r="F43" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="8"/>
       <c r="F44" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="6">
+      <c r="A45" s="8">
         <v>11</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>121</v>
       </c>
@@ -1492,56 +1704,418 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="8"/>
       <c r="F46" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="6">
+      <c r="A47" s="8">
         <v>12</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="C47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="F47" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="F48" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
       <c r="F49" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
     </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="8">
+        <v>13</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="F51" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="F52" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="F53" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="F54" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="F55" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="F56" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="F57" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6">
+        <v>14</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="8">
+        <v>15</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="F60" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="F61" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="F62" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="F63" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="F64" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="F65" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="F66" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="F67" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="F68" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="6">
+        <v>16</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="F69" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="8">
+        <v>17</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="F71" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="F72" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="6">
+        <v>18</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="F74" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="F75" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="F76" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="6">
+        <v>19</v>
+      </c>
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="6">
+        <v>20</v>
+      </c>
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="6">
+        <v>21</v>
+      </c>
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="6">
+        <v>22</v>
+      </c>
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="6">
+        <v>23</v>
+      </c>
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="6">
+        <v>24</v>
+      </c>
+      <c r="B82" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="60">
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="D51:D57"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -1554,42 +2128,6 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1609,6 +2147,13 @@
     <hyperlink ref="E8" r:id="rId14" xr:uid="{04DF7F83-D271-844F-99DD-6EFE3AD1BD19}"/>
     <hyperlink ref="E33" r:id="rId15" xr:uid="{8B3A8BC6-A593-F140-8F8E-B655A638CF99}"/>
     <hyperlink ref="E45" r:id="rId16" xr:uid="{372BA160-E147-894E-B4CA-07CCB46D9698}"/>
+    <hyperlink ref="E40" r:id="rId17" xr:uid="{B6FABE97-9704-674D-ABD7-5D3E6DD5259A}"/>
+    <hyperlink ref="E41" r:id="rId18" xr:uid="{276E04AF-19B3-294A-8E01-2167C45774BD}"/>
+    <hyperlink ref="E58" r:id="rId19" xr:uid="{CC77F7A6-8989-EE42-A23A-15CC7C7E6B4F}"/>
+    <hyperlink ref="E47" r:id="rId20" xr:uid="{9E4214E9-5E62-B443-94C4-06E9441995E5}"/>
+    <hyperlink ref="E48" r:id="rId21" xr:uid="{1E21FEB9-67B7-6644-8707-205EE11D6428}"/>
+    <hyperlink ref="E59" r:id="rId22" xr:uid="{DB557C77-2F84-284E-B5A0-22C85EDD92EC}"/>
+    <hyperlink ref="E70" r:id="rId23" xr:uid="{8E12BE5B-B7B8-2842-8CDA-EB4C6835B8D0}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5F38DB-1F2F-5747-8373-580A0443B571}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11D2D7B-0119-4148-8CF1-56FAE0786F22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="440" windowWidth="26440" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="187">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -786,6 +786,10 @@
     <rPh sb="0" eb="1">
       <t>xuan</t>
     </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/Train_YesOrNo/index.html?assetsName=HC4_T2U1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +1273,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScale="135" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E88" sqref="E88"/>
+      <selection pane="topRight" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2267,6 +2271,9 @@
       </c>
       <c r="D82" s="12" t="s">
         <v>185</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>175</v>
@@ -2415,6 +2422,7 @@
     <hyperlink ref="E83" r:id="rId32" xr:uid="{0895C3F1-1DB7-5F4D-9421-96B8DAF33868}"/>
     <hyperlink ref="E34" r:id="rId33" xr:uid="{7F21BEF9-1715-3E49-AE6B-5737686E96B2}"/>
     <hyperlink ref="E51" r:id="rId34" xr:uid="{D52C2777-F739-4542-B613-33E24828F7FF}"/>
+    <hyperlink ref="E82" r:id="rId35" xr:uid="{57163CAF-D6DE-5F4C-8ACE-81972CC9CB76}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11D2D7B-0119-4148-8CF1-56FAE0786F22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1A490367-8E11-2743-9AF9-89A302F2CFAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="440" windowWidth="26440" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,16 @@
     <sheet name="原創" sheetId="1" r:id="rId1"/>
     <sheet name="WK移植" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原創!$A$1:$G$108</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -645,7 +649,7 @@
   </si>
   <si>
     <t>王雲召</t>
-    <rPh sb="0" eb="70">
+    <rPh sb="0" eb="3">
       <t>wang'yun'z</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -669,14 +673,14 @@
   </si>
   <si>
     <t>劉淵</t>
-    <rPh sb="0" eb="36">
+    <rPh sb="0" eb="2">
       <t>liu'y</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>題目資料名稱</t>
-    <rPh sb="0" eb="77">
+    <rPh sb="0" eb="6">
       <t>fu'k</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -790,6 +794,33 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/Train_YesOrNo/index.html?assetsName=HC4_T2U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱氣球充能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC3_T2U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC4_T2U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC6_T3U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断</t>
+    <rPh sb="0" eb="2">
+      <t>pan'duan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/HotAirBalloon_YesOrNo/index.html?assetsName=HC6_T3U1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -841,6 +872,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -912,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,7 +981,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -957,12 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1269,11 +1304,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="135" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E83" sqref="E83"/>
+      <selection pane="topRight" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1311,16 +1346,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1331,10 +1366,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="2" t="s">
         <v>85</v>
       </c>
@@ -1343,36 +1378,36 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1383,10 +1418,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1395,10 +1430,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
@@ -1407,16 +1442,16 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1427,10 +1462,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="2" t="s">
         <v>96</v>
       </c>
@@ -1439,28 +1474,28 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11">
+      <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>164</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1468,11 +1503,11 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="15" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="12" t="s">
         <v>163</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1480,11 +1515,11 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="15" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="12" t="s">
         <v>165</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1492,36 +1527,36 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11">
+      <c r="A17" s="15">
         <v>5</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1532,10 +1567,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1544,25 +1579,25 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="F19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="11">
+      <c r="A20" s="15">
         <v>6</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1573,20 +1608,20 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="F21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1595,43 +1630,43 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="F23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="F24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="F25" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="11">
+      <c r="A26" s="15">
         <v>7</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1642,10 +1677,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="2" t="s">
         <v>93</v>
       </c>
@@ -1654,10 +1689,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="2" t="s">
         <v>94</v>
       </c>
@@ -1666,56 +1701,56 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="15"/>
       <c r="F29" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="15"/>
       <c r="F30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="11">
+      <c r="A31" s="15">
         <v>8</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="F31" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="F32" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11">
+      <c r="A33" s="15">
         <v>9</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1726,10 +1761,10 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="2" t="s">
         <v>183</v>
       </c>
@@ -1738,55 +1773,55 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="F35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="F36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
       <c r="F37" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
       <c r="F38" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="11">
+      <c r="A39" s="15">
         <v>10</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="12" t="s">
         <v>167</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -1794,11 +1829,11 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="16" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="13" t="s">
         <v>168</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -1806,11 +1841,11 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="15" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="12" t="s">
         <v>169</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -1818,43 +1853,43 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="15"/>
       <c r="F42" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="15"/>
       <c r="F43" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15"/>
       <c r="F44" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="11">
+      <c r="A45" s="15">
         <v>11</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1865,25 +1900,25 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
       <c r="F46" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="11">
+      <c r="A47" s="15">
         <v>12</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -1894,10 +1929,10 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="10" t="s">
         <v>128</v>
       </c>
@@ -1906,34 +1941,34 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
       <c r="F49" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
       <c r="F50" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="11">
+      <c r="A51" s="15">
         <v>13</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1947,20 +1982,20 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="15"/>
       <c r="F52" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="15" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="12" t="s">
         <v>170</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -1971,28 +2006,28 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="15"/>
       <c r="F54" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="15"/>
       <c r="F55" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="15"/>
       <c r="F56" s="3" t="s">
         <v>123</v>
       </c>
@@ -2018,16 +2053,16 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="11">
+      <c r="A58" s="15">
         <v>15</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -2038,10 +2073,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
       <c r="E59" s="2" t="s">
         <v>172</v>
       </c>
@@ -2050,64 +2085,64 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
       <c r="F60" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
       <c r="F61" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
       <c r="F62" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
       <c r="F63" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
       <c r="F64" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
       <c r="F65" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
       <c r="F66" s="3" t="s">
         <v>139</v>
       </c>
@@ -2141,16 +2176,16 @@
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="11">
+      <c r="A69" s="15">
         <v>17</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -2162,19 +2197,19 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
       <c r="F70" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="2" t="s">
         <v>171</v>
       </c>
@@ -2183,16 +2218,16 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="11">
+      <c r="A72" s="15">
         <v>18</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="14" t="s">
         <v>155</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -2200,28 +2235,28 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
       <c r="F73" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
       <c r="F74" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="6">
@@ -2260,16 +2295,16 @@
       <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="11">
+      <c r="A82" s="15">
         <v>25</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="14" t="s">
         <v>185</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -2283,10 +2318,10 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="14"/>
       <c r="E83" s="2" t="s">
         <v>179</v>
       </c>
@@ -2298,33 +2333,204 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="14"/>
       <c r="F84" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="14"/>
       <c r="F85" s="3" t="s">
         <v>178</v>
       </c>
     </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="11">
+        <v>29</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" t="s">
+        <v>159</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="11"/>
+      <c r="B90" s="1"/>
+      <c r="F90" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="11"/>
+      <c r="B91" s="1"/>
+      <c r="E91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="11">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G108" xr:uid="{3396138E-1BD1-9240-BE7E-483D5F8CCF1C}"/>
   <mergeCells count="68">
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="D58:D66"/>
+    <mergeCell ref="C58:C66"/>
+    <mergeCell ref="B58:B66"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="B51:B56"/>
     <mergeCell ref="C51:C56"/>
@@ -2341,50 +2547,14 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="D58:D66"/>
-    <mergeCell ref="C58:C66"/>
-    <mergeCell ref="B58:B66"/>
-    <mergeCell ref="A58:A66"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2423,6 +2593,7 @@
     <hyperlink ref="E34" r:id="rId33" xr:uid="{7F21BEF9-1715-3E49-AE6B-5737686E96B2}"/>
     <hyperlink ref="E51" r:id="rId34" xr:uid="{D52C2777-F739-4542-B613-33E24828F7FF}"/>
     <hyperlink ref="E82" r:id="rId35" xr:uid="{57163CAF-D6DE-5F4C-8ACE-81972CC9CB76}"/>
+    <hyperlink ref="E91" r:id="rId36" xr:uid="{BF28DE53-75DE-684A-911F-16EC250436BD}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1A490367-8E11-2743-9AF9-89A302F2CFAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC05852-533B-B34B-ABF9-18246541714F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="440" windowWidth="26440" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原創!$A$1:$G$108</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="194">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -821,6 +820,10 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/HotAirBalloon_YesOrNo/index.html?assetsName=HC6_T3U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/HotAirBalloon_AreYouOK/index.html?assetsName=HC3_T2U2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,6 +994,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1306,9 +1315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="135" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F91" sqref="F91"/>
+      <selection pane="topRight" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1346,16 +1355,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1366,10 +1375,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="2" t="s">
         <v>85</v>
       </c>
@@ -1378,36 +1387,36 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1418,10 +1427,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1430,10 +1439,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
@@ -1442,16 +1451,16 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1462,10 +1471,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
         <v>96</v>
       </c>
@@ -1474,25 +1483,25 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="15">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1503,10 +1512,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="12" t="s">
         <v>163</v>
       </c>
@@ -1515,10 +1524,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="12" t="s">
         <v>165</v>
       </c>
@@ -1527,36 +1536,36 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="15">
+      <c r="A17" s="16">
         <v>5</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1567,10 +1576,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1579,25 +1588,25 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="F19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="15">
+      <c r="A20" s="16">
         <v>6</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1608,20 +1617,20 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="F21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1630,43 +1639,43 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="F23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="F24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="F25" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="15">
+      <c r="A26" s="16">
         <v>7</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1677,10 +1686,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="2" t="s">
         <v>93</v>
       </c>
@@ -1689,10 +1698,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="2" t="s">
         <v>94</v>
       </c>
@@ -1701,56 +1710,56 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="16"/>
       <c r="F29" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="16"/>
       <c r="F30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="15">
+      <c r="A31" s="16">
         <v>8</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="F31" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="F32" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="15">
+      <c r="A33" s="16">
         <v>9</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1761,10 +1770,10 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="2" t="s">
         <v>183</v>
       </c>
@@ -1773,52 +1782,52 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="F35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
       <c r="F36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="F37" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="F38" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="15">
+      <c r="A39" s="16">
         <v>10</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -1829,10 +1838,10 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="15"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="13" t="s">
         <v>168</v>
       </c>
@@ -1841,10 +1850,10 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="15"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="12" t="s">
         <v>169</v>
       </c>
@@ -1853,43 +1862,43 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="15"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="16"/>
       <c r="F42" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="15"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="16"/>
       <c r="F43" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="15"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="16"/>
       <c r="F44" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="15">
+      <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1900,25 +1909,25 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="15"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="16"/>
       <c r="F46" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="15">
+      <c r="A47" s="16">
         <v>12</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -1929,10 +1938,10 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="10" t="s">
         <v>128</v>
       </c>
@@ -1941,34 +1950,34 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
       <c r="F49" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
       <c r="F50" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="15">
+      <c r="A51" s="16">
         <v>13</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1982,19 +1991,19 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="15"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="16"/>
       <c r="F52" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="15"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="12" t="s">
         <v>170</v>
       </c>
@@ -2006,28 +2015,28 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="15"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="16"/>
       <c r="F54" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="15"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="16"/>
       <c r="F55" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="16"/>
       <c r="F56" s="3" t="s">
         <v>123</v>
       </c>
@@ -2053,16 +2062,16 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="15">
+      <c r="A58" s="16">
         <v>15</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -2073,10 +2082,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="2" t="s">
         <v>172</v>
       </c>
@@ -2085,64 +2094,64 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
       <c r="F60" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
       <c r="F61" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="F62" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
       <c r="F63" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
       <c r="F64" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
       <c r="F65" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
       <c r="F66" s="3" t="s">
         <v>139</v>
       </c>
@@ -2176,16 +2185,16 @@
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="15">
+      <c r="A69" s="16">
         <v>17</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -2197,19 +2206,19 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="15"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
       <c r="F70" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="15"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="2" t="s">
         <v>171</v>
       </c>
@@ -2218,16 +2227,16 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="15">
+      <c r="A72" s="16">
         <v>18</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -2235,28 +2244,28 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
       <c r="F73" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
       <c r="F74" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="6">
@@ -2295,16 +2304,16 @@
       <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="15">
+      <c r="A82" s="16">
         <v>25</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="17" t="s">
         <v>185</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -2318,10 +2327,10 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="14"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="2" t="s">
         <v>179</v>
       </c>
@@ -2333,19 +2342,19 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="14"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
       <c r="F84" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="14"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="17"/>
       <c r="F85" s="3" t="s">
         <v>178</v>
       </c>
@@ -2369,11 +2378,17 @@
       <c r="A89" s="11">
         <v>29</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="15" t="s">
         <v>159</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>188</v>
@@ -2382,6 +2397,7 @@
     <row r="90" spans="1:7">
       <c r="A90" s="11"/>
       <c r="B90" s="1"/>
+      <c r="D90" s="15"/>
       <c r="F90" s="4" t="s">
         <v>189</v>
       </c>
@@ -2389,6 +2405,9 @@
     <row r="91" spans="1:7">
       <c r="A91" s="11"/>
       <c r="B91" s="1"/>
+      <c r="D91" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>192</v>
       </c>
@@ -2487,6 +2506,58 @@
   </sheetData>
   <autoFilter ref="A1:G108" xr:uid="{3396138E-1BD1-9240-BE7E-483D5F8CCF1C}"/>
   <mergeCells count="68">
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="C69:C71"/>
@@ -2503,58 +2574,6 @@
     <mergeCell ref="D47:D50"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2594,6 +2613,7 @@
     <hyperlink ref="E51" r:id="rId34" xr:uid="{D52C2777-F739-4542-B613-33E24828F7FF}"/>
     <hyperlink ref="E82" r:id="rId35" xr:uid="{57163CAF-D6DE-5F4C-8ACE-81972CC9CB76}"/>
     <hyperlink ref="E91" r:id="rId36" xr:uid="{BF28DE53-75DE-684A-911F-16EC250436BD}"/>
+    <hyperlink ref="E89" r:id="rId37" xr:uid="{EA2E30D3-87C7-4D4B-8A3D-6227676963DA}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC05852-533B-B34B-ABF9-18246541714F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0705D611-D35B-264C-B28C-05BBEC46FA17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="440" windowWidth="26440" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33040" yWindow="1080" windowWidth="26440" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原創" sheetId="1" r:id="rId1"/>
     <sheet name="WK移植" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原創!$A$1:$G$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原創!$A$1:$G$115</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="204">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -824,6 +824,52 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/HotAirBalloon_AreYouOK/index.html?assetsName=HC3_T2U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2选1,1题2图2音</t>
+    <rPh sb="0" eb="1">
+      <t>yin</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2选1,1题1图1音</t>
+    <rPh sb="0" eb="1">
+      <t>xuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/HotAirBalloon_DoYouLike/index.html?assetsName=HC4_T2U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS3_U8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS5_U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS5_U9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS5_U11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG2_U4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG3_U5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG6_U2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,9 +1036,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,11 +1045,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1313,11 +1362,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="135" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D96" sqref="D96"/>
+      <selection pane="topRight" activeCell="A89" sqref="A89:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1355,16 +1404,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1375,10 +1424,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2" t="s">
         <v>85</v>
       </c>
@@ -1387,36 +1436,36 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1427,10 +1476,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1439,10 +1488,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
@@ -1451,16 +1500,16 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="16">
+      <c r="A9" s="17">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1471,10 +1520,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2" t="s">
         <v>96</v>
       </c>
@@ -1483,25 +1532,25 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1512,10 +1561,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="12" t="s">
         <v>163</v>
       </c>
@@ -1524,10 +1573,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="12" t="s">
         <v>165</v>
       </c>
@@ -1536,36 +1585,36 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="16">
+      <c r="A17" s="17">
         <v>5</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1576,10 +1625,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1588,25 +1637,25 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="F19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="16">
+      <c r="A20" s="17">
         <v>6</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1617,20 +1666,20 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="F21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1639,43 +1688,43 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="F23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="F24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="F25" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="16">
+      <c r="A26" s="17">
         <v>7</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1686,10 +1735,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="2" t="s">
         <v>93</v>
       </c>
@@ -1698,10 +1747,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="2" t="s">
         <v>94</v>
       </c>
@@ -1710,56 +1759,56 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="17"/>
       <c r="F29" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="16"/>
+      <c r="D30" s="17"/>
       <c r="F30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="16">
+      <c r="A31" s="17">
         <v>8</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="F31" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="F32" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16">
+      <c r="A33" s="17">
         <v>9</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1770,10 +1819,10 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="2" t="s">
         <v>183</v>
       </c>
@@ -1782,52 +1831,52 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="F35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="F36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="F37" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="F38" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16">
+      <c r="A39" s="17">
         <v>10</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -1838,10 +1887,10 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="13" t="s">
         <v>168</v>
       </c>
@@ -1850,10 +1899,10 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="12" t="s">
         <v>169</v>
       </c>
@@ -1862,43 +1911,43 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="17"/>
       <c r="F42" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="17"/>
       <c r="F43" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="17"/>
       <c r="F44" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="16">
+      <c r="A45" s="17">
         <v>11</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1909,25 +1958,25 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="16"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
       <c r="F46" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="16">
+      <c r="A47" s="17">
         <v>12</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -1938,10 +1987,10 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="10" t="s">
         <v>128</v>
       </c>
@@ -1950,34 +1999,34 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="F49" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="F50" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="16">
+      <c r="A51" s="17">
         <v>13</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>173</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1991,19 +2040,19 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="18"/>
-      <c r="D52" s="16"/>
+      <c r="D52" s="17"/>
       <c r="F52" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="18"/>
-      <c r="D53" s="16"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="12" t="s">
         <v>170</v>
       </c>
@@ -2015,28 +2064,28 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="17"/>
       <c r="F54" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="18"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="17"/>
       <c r="F55" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="18"/>
-      <c r="D56" s="16"/>
+      <c r="D56" s="17"/>
       <c r="F56" s="3" t="s">
         <v>123</v>
       </c>
@@ -2062,16 +2111,16 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="16">
+      <c r="A58" s="17">
         <v>15</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -2082,10 +2131,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="2" t="s">
         <v>172</v>
       </c>
@@ -2094,64 +2143,64 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
       <c r="F60" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="F61" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
       <c r="F62" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
       <c r="F63" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
       <c r="F64" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="F65" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
       <c r="F66" s="3" t="s">
         <v>139</v>
       </c>
@@ -2185,16 +2234,16 @@
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="16">
+      <c r="A69" s="17">
         <v>17</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -2206,19 +2255,19 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
       <c r="F70" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
       <c r="E71" s="2" t="s">
         <v>171</v>
       </c>
@@ -2227,16 +2276,16 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="16">
+      <c r="A72" s="17">
         <v>18</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -2244,28 +2293,28 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="F73" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
       <c r="F74" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="6">
@@ -2304,16 +2353,16 @@
       <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="16">
+      <c r="A82" s="17">
         <v>25</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="16" t="s">
         <v>185</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -2327,10 +2376,10 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="2" t="s">
         <v>179</v>
       </c>
@@ -2342,19 +2391,19 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="16"/>
       <c r="F84" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="17"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="16"/>
       <c r="F85" s="3" t="s">
         <v>178</v>
       </c>
@@ -2375,16 +2424,16 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="11">
+      <c r="A89" s="17">
         <v>29</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -2393,19 +2442,32 @@
       <c r="F89" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="G89" s="20" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="11"/>
-      <c r="B90" s="1"/>
-      <c r="D90" s="15"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="F90" s="4" t="s">
         <v>189</v>
       </c>
+      <c r="G90" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="11"/>
-      <c r="B91" s="1"/>
-      <c r="D91" s="15" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2419,101 +2481,217 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="11">
+      <c r="A92" s="17"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="17"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="17"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="17"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="17"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="17"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="17"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="11">
+    <row r="100" spans="1:7">
+      <c r="A100" s="11">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="11">
+    <row r="101" spans="1:7">
+      <c r="A101" s="11">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="11">
+    <row r="102" spans="1:7">
+      <c r="A102" s="11">
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="11">
+    <row r="103" spans="1:7">
+      <c r="A103" s="11">
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="11">
+    <row r="104" spans="1:7">
+      <c r="A104" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="11">
+    <row r="105" spans="1:7">
+      <c r="A105" s="11">
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="11">
+    <row r="106" spans="1:7">
+      <c r="A106" s="11">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="11">
+    <row r="107" spans="1:7">
+      <c r="A107" s="11">
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="11">
+    <row r="108" spans="1:7">
+      <c r="A108" s="11">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="11">
+    <row r="109" spans="1:7">
+      <c r="A109" s="11">
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="11">
+    <row r="110" spans="1:7">
+      <c r="A110" s="11">
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="11">
+    <row r="111" spans="1:7">
+      <c r="A111" s="11">
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="11">
+    <row r="112" spans="1:7">
+      <c r="A112" s="11">
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="11">
+    <row r="113" spans="1:1">
+      <c r="A113" s="11">
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="11">
+    <row r="114" spans="1:1">
+      <c r="A114" s="11">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="11">
+    <row r="115" spans="1:1">
+      <c r="A115" s="11">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G108" xr:uid="{3396138E-1BD1-9240-BE7E-483D5F8CCF1C}"/>
-  <mergeCells count="68">
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
+  <autoFilter ref="A1:G115" xr:uid="{3396138E-1BD1-9240-BE7E-483D5F8CCF1C}"/>
+  <mergeCells count="71">
+    <mergeCell ref="A89:A98"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="C89:C98"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="D58:D66"/>
+    <mergeCell ref="C58:C66"/>
+    <mergeCell ref="B58:B66"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="B51:B56"/>
     <mergeCell ref="C51:C56"/>
@@ -2530,50 +2708,14 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="D58:D66"/>
-    <mergeCell ref="C58:C66"/>
-    <mergeCell ref="B58:B66"/>
-    <mergeCell ref="A58:A66"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2614,6 +2756,7 @@
     <hyperlink ref="E82" r:id="rId35" xr:uid="{57163CAF-D6DE-5F4C-8ACE-81972CC9CB76}"/>
     <hyperlink ref="E91" r:id="rId36" xr:uid="{BF28DE53-75DE-684A-911F-16EC250436BD}"/>
     <hyperlink ref="E89" r:id="rId37" xr:uid="{EA2E30D3-87C7-4D4B-8A3D-6227676963DA}"/>
+    <hyperlink ref="E90" r:id="rId38" xr:uid="{1B4827DB-9A9C-1A4A-B030-4FE28A92F22F}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0705D611-D35B-264C-B28C-05BBEC46FA17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DE5DA0-A8BF-9C41-8ECC-DFE322792FDC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33040" yWindow="1080" windowWidth="26440" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="560" windowWidth="19720" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原創" sheetId="1" r:id="rId1"/>
     <sheet name="WK移植" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原創!$A$1:$G$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原創!$A$1:$G$122</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="231">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -606,10 +606,6 @@
     <t>消防隊</t>
   </si>
   <si>
-    <t>HC4_T4U2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BS4_U6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -633,20 +629,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>開發中</t>
-    <rPh sb="0" eb="3">
-      <t>kai'fa'zhong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>開發中</t>
-    <rPh sb="0" eb="3">
-      <t>kai'f'z</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>王雲召</t>
     <rPh sb="0" eb="3">
       <t>wang'yun'z</t>
@@ -669,9 +651,6 @@
   </si>
   <si>
     <t>劉淵</t>
-  </si>
-  <si>
-    <t>劉淵</t>
     <rPh sb="0" eb="2">
       <t>liu'y</t>
     </rPh>
@@ -721,10 +700,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://118.25.0.212/h5/Racer_Select/index.html?assetsName=HC4_T4U2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>http://118.25.0.212/h5/PasteLabel/index.html?assetsName=HC6_T1U1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -870,6 +845,135 @@
   </si>
   <si>
     <t>WTG6_U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断</t>
+    <rPh sb="0" eb="2">
+      <t>pan'd</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡樂射擊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉淵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC5_T1U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS4_U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS5_U4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG2_U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>套繩圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁建波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC5_T3U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC5_T4U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/Ropes/index.html?assetsName=HC5_T3U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/Ropes/index.html?assetsName=HC5_T4U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/HappyShot/index.html?assetsName=HC5_T1U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田徑比賽</t>
+  </si>
+  <si>
+    <t>HC5_T2U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS4_U5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/AthleticRace/index.html?assetsName=HC5_T2U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/BasketBallGame/index.html?assetsName=HC5_T1U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC4_T4U2</t>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/xiaoFangYuan/index.html?assetsName=HC4_T4U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保齡球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC5_T4U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC6_T2U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS4_U3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS5_U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG5_U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG3_U4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG8_U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/Bowling/index.html?assetsName=HC5_T4U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/Bowling/index.html?assetsName=HC6_T2U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/Constructionworker2/index.html?assetsName=HC2_T3U2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +1097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,9 +1125,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1042,10 +1143,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1053,9 +1166,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1362,11 +1472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="135" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A89" sqref="A89:F98"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="135" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1397,23 +1507,23 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1424,10 +1534,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="2" t="s">
         <v>85</v>
       </c>
@@ -1436,36 +1546,36 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1476,10 +1586,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1488,10 +1598,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
@@ -1500,16 +1610,16 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17">
+      <c r="A9" s="19">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1520,10 +1630,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="2" t="s">
         <v>96</v>
       </c>
@@ -1532,89 +1642,89 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17">
+      <c r="A12" s="19">
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>164</v>
+      <c r="E12" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="12" t="s">
-        <v>163</v>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="12" t="s">
-        <v>165</v>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17">
+      <c r="A17" s="19">
         <v>5</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1625,10 +1735,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1637,49 +1747,52 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="F19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="17">
+      <c r="A20" s="19">
         <v>6</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="F21" s="3" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1688,43 +1801,43 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="F23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="F24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="F25" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17">
+      <c r="A26" s="19">
         <v>7</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1735,10 +1848,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="2" t="s">
         <v>93</v>
       </c>
@@ -1747,10 +1860,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="2" t="s">
         <v>94</v>
       </c>
@@ -1759,56 +1872,56 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="17"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="19"/>
       <c r="F29" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="19"/>
       <c r="F30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="17">
+      <c r="A31" s="19">
         <v>8</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="F31" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="F32" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17">
+      <c r="A33" s="19">
         <v>9</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1819,135 +1932,135 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
       <c r="F35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="F36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
       <c r="F37" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
       <c r="F38" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="17">
+      <c r="A39" s="19">
         <v>10</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>167</v>
+      <c r="E39" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="13" t="s">
-        <v>168</v>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="12" t="s">
-        <v>169</v>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="17"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="17"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="19"/>
       <c r="F42" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="17"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="17"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="19"/>
       <c r="F43" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="17"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="19"/>
       <c r="F44" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="17">
+      <c r="A45" s="19">
         <v>11</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="17" t="s">
+      <c r="C45" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1958,28 +2071,28 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="17"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="19"/>
       <c r="F46" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="17">
+      <c r="A47" s="19">
         <v>12</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -1987,11 +2100,11 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="10" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -1999,93 +2112,96 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
       <c r="F49" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
       <c r="F50" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="17">
+      <c r="A51" s="19">
         <v>13</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="16" t="s">
+      <c r="B51" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="17"/>
-      <c r="F52" s="3" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="12" t="s">
-        <v>170</v>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="17"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="19"/>
       <c r="F54" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="17"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="19"/>
       <c r="F55" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="17"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="19"/>
       <c r="F56" s="3" t="s">
         <v>123</v>
       </c>
@@ -2098,7 +2214,7 @@
         <v>124</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>11</v>
@@ -2111,16 +2227,16 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="17">
+      <c r="A58" s="19">
         <v>15</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="16" t="s">
+      <c r="C58" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -2131,76 +2247,76 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
       <c r="E59" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
       <c r="F60" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
       <c r="F61" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
       <c r="F62" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
       <c r="F63" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
       <c r="F64" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
       <c r="F65" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
       <c r="F66" s="3" t="s">
         <v>139</v>
       </c>
@@ -2213,108 +2329,110 @@
         <v>141</v>
       </c>
       <c r="C67" s="6"/>
-      <c r="D67" s="8" t="s">
-        <v>154</v>
-      </c>
+      <c r="D67" s="8"/>
       <c r="F67" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="A68" s="19">
+        <v>17</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="E68" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G68" s="5"/>
+      <c r="G68" s="16" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="17">
-        <v>17</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G69" s="5"/>
+      <c r="G69" s="16" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="17"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="19"/>
       <c r="F70" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="17"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
+      <c r="A71" s="19">
+        <v>18</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="E71" s="2" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="F71" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="F72" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="17">
-        <v>18</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F72" s="3" t="s">
+    <row r="73" spans="1:7">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="F73" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="F73" s="3" t="s">
+    <row r="74" spans="1:7">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="F74" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="F74" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="6">
@@ -2329,329 +2447,549 @@
       <c r="B77" s="6"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="6">
+      <c r="A78" s="19">
         <v>21</v>
       </c>
-      <c r="B78" s="6"/>
+      <c r="B78" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="6">
-        <v>22</v>
-      </c>
-      <c r="B79" s="6"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="F79" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B80" s="6"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="6">
+        <v>23</v>
+      </c>
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="6">
         <v>24</v>
       </c>
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="17">
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="19">
         <v>25</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B83" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" s="16" t="s">
+      <c r="F84" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="F85" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="F86" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="19">
+        <v>29</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="G92" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="16"/>
-      <c r="F84" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="16"/>
-      <c r="F85" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="17">
-        <v>29</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G89" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="17"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G90" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="17"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="17"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="17"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="15"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="2"/>
       <c r="F93" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="17"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="15"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="14"/>
       <c r="E94" s="2"/>
       <c r="F94" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="17"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="15"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="14"/>
       <c r="E95" s="2"/>
       <c r="F95" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="17"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="15"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="14"/>
       <c r="E96" s="2"/>
       <c r="F96" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="17"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="15"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="14"/>
       <c r="E97" s="2"/>
       <c r="F97" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="17"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="15"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="14"/>
       <c r="E98" s="2"/>
       <c r="F98" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="19">
+        <v>40</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="19"/>
+      <c r="E110" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="19"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="19"/>
+      <c r="F112" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="19"/>
+      <c r="F113" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="19"/>
+      <c r="F114" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="19"/>
+      <c r="F115" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="19"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="19"/>
+      <c r="F116" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="19">
+        <v>47</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="19">
+        <v>48</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="F126" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="11">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="11">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="11">
-        <v>46</v>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="F127" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="F128" s="18" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G115" xr:uid="{3396138E-1BD1-9240-BE7E-483D5F8CCF1C}"/>
-  <mergeCells count="71">
-    <mergeCell ref="A89:A98"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="C89:C98"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
+  <autoFilter ref="A1:G122" xr:uid="{3396138E-1BD1-9240-BE7E-483D5F8CCF1C}"/>
+  <mergeCells count="87">
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B110:B116"/>
+    <mergeCell ref="A110:A116"/>
+    <mergeCell ref="C110:C116"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D110:D116"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
@@ -2668,54 +3006,22 @@
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="C47:C50"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="B90:B99"/>
+    <mergeCell ref="C90:C99"/>
+    <mergeCell ref="D83:D86"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2748,15 +3054,23 @@
     <hyperlink ref="E40" r:id="rId27" xr:uid="{5B28CB2E-67C5-524B-ABAC-2F8B70B121DF}"/>
     <hyperlink ref="E39" r:id="rId28" xr:uid="{0D010FED-682C-6F41-9775-722D9F79B839}"/>
     <hyperlink ref="E53" r:id="rId29" xr:uid="{09962E0E-73DB-5C44-BC07-4E3D7201DD89}"/>
-    <hyperlink ref="E71" r:id="rId30" xr:uid="{02E0DBFF-C004-7044-99FA-23F93E106346}"/>
-    <hyperlink ref="E59" r:id="rId31" xr:uid="{2CD2899C-2221-F745-994E-C8F6D04AD33F}"/>
-    <hyperlink ref="E83" r:id="rId32" xr:uid="{0895C3F1-1DB7-5F4D-9421-96B8DAF33868}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{7F21BEF9-1715-3E49-AE6B-5737686E96B2}"/>
-    <hyperlink ref="E51" r:id="rId34" xr:uid="{D52C2777-F739-4542-B613-33E24828F7FF}"/>
-    <hyperlink ref="E82" r:id="rId35" xr:uid="{57163CAF-D6DE-5F4C-8ACE-81972CC9CB76}"/>
-    <hyperlink ref="E91" r:id="rId36" xr:uid="{BF28DE53-75DE-684A-911F-16EC250436BD}"/>
-    <hyperlink ref="E89" r:id="rId37" xr:uid="{EA2E30D3-87C7-4D4B-8A3D-6227676963DA}"/>
-    <hyperlink ref="E90" r:id="rId38" xr:uid="{1B4827DB-9A9C-1A4A-B030-4FE28A92F22F}"/>
+    <hyperlink ref="E59" r:id="rId30" xr:uid="{2CD2899C-2221-F745-994E-C8F6D04AD33F}"/>
+    <hyperlink ref="E84" r:id="rId31" xr:uid="{0895C3F1-1DB7-5F4D-9421-96B8DAF33868}"/>
+    <hyperlink ref="E34" r:id="rId32" xr:uid="{7F21BEF9-1715-3E49-AE6B-5737686E96B2}"/>
+    <hyperlink ref="E51" r:id="rId33" xr:uid="{D52C2777-F739-4542-B613-33E24828F7FF}"/>
+    <hyperlink ref="E83" r:id="rId34" xr:uid="{57163CAF-D6DE-5F4C-8ACE-81972CC9CB76}"/>
+    <hyperlink ref="E92" r:id="rId35" xr:uid="{BF28DE53-75DE-684A-911F-16EC250436BD}"/>
+    <hyperlink ref="E90" r:id="rId36" xr:uid="{EA2E30D3-87C7-4D4B-8A3D-6227676963DA}"/>
+    <hyperlink ref="E91" r:id="rId37" xr:uid="{1B4827DB-9A9C-1A4A-B030-4FE28A92F22F}"/>
+    <hyperlink ref="E123" r:id="rId38" xr:uid="{FA5EC53B-CF05-3B4F-A04B-A727A3B21EC8}"/>
+    <hyperlink ref="E124" r:id="rId39" xr:uid="{1760E00B-0BA6-BE47-80A6-FA24ED791829}"/>
+    <hyperlink ref="E125" r:id="rId40" xr:uid="{8EC1D8C1-22FA-B540-89AA-8461CB568C1B}"/>
+    <hyperlink ref="E78" r:id="rId41" xr:uid="{3513F399-5BCC-A94C-8947-E4DEFC2F4B85}"/>
+    <hyperlink ref="E52" r:id="rId42" xr:uid="{7FFE0A41-7151-A748-ABC5-BA8C533C6247}"/>
+    <hyperlink ref="E71" r:id="rId43" xr:uid="{C1B2F7CB-622F-DD4F-A23A-6056BCE01B63}"/>
+    <hyperlink ref="E110" r:id="rId44" xr:uid="{824690CA-D308-4447-929D-1EAD24CFDE0E}"/>
+    <hyperlink ref="E111" r:id="rId45" xr:uid="{1E865B2B-466C-AB43-BB48-14BA6FAAE4E1}"/>
+    <hyperlink ref="E21" r:id="rId46" xr:uid="{F744FEC0-A6C2-5641-817D-70A96DDA2E79}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DE5DA0-A8BF-9C41-8ECC-DFE322792FDC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3069AEB-E045-0743-ADCF-914F0ED7478D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="560" windowWidth="19720" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="WK移植" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原創!$A$1:$G$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原創!$A$1:$G$124</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="236">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -974,6 +974,26 @@
   </si>
   <si>
     <t>http://118.25.0.212/h5/Constructionworker2/index.html?assetsName=HC2_T3U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小馴獸師</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC6_T3U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG3_U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG8_U5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/SmallAnimalTrainer/index.html?assetsName=HC6_T3U2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1161,10 +1181,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1472,11 +1492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="135" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="135" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1834,7 +1854,7 @@
       <c r="B26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -1850,7 +1870,7 @@
     <row r="27" spans="1:7">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="22"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="19"/>
       <c r="E27" s="2" t="s">
         <v>93</v>
@@ -1862,7 +1882,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="22"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="19"/>
       <c r="E28" s="2" t="s">
         <v>94</v>
@@ -1874,7 +1894,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="22"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="19"/>
       <c r="F29" s="3" t="s">
         <v>62</v>
@@ -1883,7 +1903,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="19"/>
       <c r="F30" s="3" t="s">
         <v>63</v>
@@ -1986,7 +2006,7 @@
       <c r="B39" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="22" t="s">
         <v>117</v>
       </c>
       <c r="D39" s="19" t="s">
@@ -2002,7 +2022,7 @@
     <row r="40" spans="1:6">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="19"/>
       <c r="E40" s="12" t="s">
         <v>164</v>
@@ -2014,7 +2034,7 @@
     <row r="41" spans="1:6">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="19"/>
       <c r="E41" s="11" t="s">
         <v>165</v>
@@ -2026,7 +2046,7 @@
     <row r="42" spans="1:6">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="19"/>
       <c r="F42" s="3" t="s">
         <v>75</v>
@@ -2035,7 +2055,7 @@
     <row r="43" spans="1:6">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="19"/>
       <c r="F43" s="3" t="s">
         <v>76</v>
@@ -2044,7 +2064,7 @@
     <row r="44" spans="1:6">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="19"/>
       <c r="F44" s="3" t="s">
         <v>77</v>
@@ -2136,7 +2156,7 @@
       <c r="B51" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>207</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -2155,7 +2175,7 @@
     <row r="52" spans="1:7">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="19"/>
       <c r="E52" s="2" t="s">
         <v>217</v>
@@ -2167,7 +2187,7 @@
     <row r="53" spans="1:7">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="21"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="19"/>
       <c r="E53" s="11" t="s">
         <v>166</v>
@@ -2182,7 +2202,7 @@
     <row r="54" spans="1:7">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="21"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="19"/>
       <c r="F54" s="3" t="s">
         <v>121</v>
@@ -2191,7 +2211,7 @@
     <row r="55" spans="1:7">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
-      <c r="C55" s="21"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="19"/>
       <c r="F55" s="3" t="s">
         <v>122</v>
@@ -2200,7 +2220,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
-      <c r="C56" s="21"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="19"/>
       <c r="F56" s="3" t="s">
         <v>123</v>
@@ -2839,70 +2859,71 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="10">
+      <c r="A120" s="19">
         <v>44</v>
       </c>
+      <c r="B120" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="10">
+      <c r="A121" s="19"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="19"/>
+      <c r="F121" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="19"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="19"/>
+      <c r="F122" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="10">
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="10">
+    <row r="124" spans="1:6">
+      <c r="A124" s="10">
         <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="19">
-        <v>47</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F123" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F124" s="17" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="19">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D125" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2910,17 +2931,31 @@
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
-      <c r="F126" s="18" t="s">
-        <v>203</v>
+      <c r="E126" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="19"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="F127" s="18" t="s">
-        <v>204</v>
+      <c r="A127" s="19">
+        <v>48</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2929,27 +2964,86 @@
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
       <c r="F128" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="F129" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="F130" s="18" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G122" xr:uid="{3396138E-1BD1-9240-BE7E-483D5F8CCF1C}"/>
-  <mergeCells count="87">
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B110:B116"/>
-    <mergeCell ref="A110:A116"/>
-    <mergeCell ref="C110:C116"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D110:D116"/>
+  <autoFilter ref="A1:G124" xr:uid="{3396138E-1BD1-9240-BE7E-483D5F8CCF1C}"/>
+  <mergeCells count="91">
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="B90:B99"/>
+    <mergeCell ref="C90:C99"/>
+    <mergeCell ref="D83:D86"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="D58:D66"/>
+    <mergeCell ref="C58:C66"/>
+    <mergeCell ref="B58:B66"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="B51:B56"/>
     <mergeCell ref="C51:C56"/>
@@ -2966,62 +3060,25 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="D58:D66"/>
-    <mergeCell ref="C58:C66"/>
-    <mergeCell ref="B58:B66"/>
-    <mergeCell ref="A58:A66"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A90:A99"/>
-    <mergeCell ref="B90:B99"/>
-    <mergeCell ref="C90:C99"/>
-    <mergeCell ref="D83:D86"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D110:D116"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B110:B116"/>
+    <mergeCell ref="A110:A116"/>
+    <mergeCell ref="C110:C116"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3062,15 +3119,16 @@
     <hyperlink ref="E92" r:id="rId35" xr:uid="{BF28DE53-75DE-684A-911F-16EC250436BD}"/>
     <hyperlink ref="E90" r:id="rId36" xr:uid="{EA2E30D3-87C7-4D4B-8A3D-6227676963DA}"/>
     <hyperlink ref="E91" r:id="rId37" xr:uid="{1B4827DB-9A9C-1A4A-B030-4FE28A92F22F}"/>
-    <hyperlink ref="E123" r:id="rId38" xr:uid="{FA5EC53B-CF05-3B4F-A04B-A727A3B21EC8}"/>
-    <hyperlink ref="E124" r:id="rId39" xr:uid="{1760E00B-0BA6-BE47-80A6-FA24ED791829}"/>
-    <hyperlink ref="E125" r:id="rId40" xr:uid="{8EC1D8C1-22FA-B540-89AA-8461CB568C1B}"/>
+    <hyperlink ref="E125" r:id="rId38" xr:uid="{FA5EC53B-CF05-3B4F-A04B-A727A3B21EC8}"/>
+    <hyperlink ref="E126" r:id="rId39" xr:uid="{1760E00B-0BA6-BE47-80A6-FA24ED791829}"/>
+    <hyperlink ref="E127" r:id="rId40" xr:uid="{8EC1D8C1-22FA-B540-89AA-8461CB568C1B}"/>
     <hyperlink ref="E78" r:id="rId41" xr:uid="{3513F399-5BCC-A94C-8947-E4DEFC2F4B85}"/>
     <hyperlink ref="E52" r:id="rId42" xr:uid="{7FFE0A41-7151-A748-ABC5-BA8C533C6247}"/>
     <hyperlink ref="E71" r:id="rId43" xr:uid="{C1B2F7CB-622F-DD4F-A23A-6056BCE01B63}"/>
     <hyperlink ref="E110" r:id="rId44" xr:uid="{824690CA-D308-4447-929D-1EAD24CFDE0E}"/>
     <hyperlink ref="E111" r:id="rId45" xr:uid="{1E865B2B-466C-AB43-BB48-14BA6FAAE4E1}"/>
     <hyperlink ref="E21" r:id="rId46" xr:uid="{F744FEC0-A6C2-5641-817D-70A96DDA2E79}"/>
+    <hyperlink ref="E120" r:id="rId47" xr:uid="{35617DA6-C468-7045-9F60-BBD158D4BC59}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
